--- a/output/3Y_P12_KFSDIV.xlsx
+++ b/output/3Y_P12_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -3892,10 +3895,10 @@
         <v>216385.8425</v>
       </c>
       <c r="K20" s="1">
-        <v>154198.717</v>
+        <v>154230.4204</v>
       </c>
       <c r="L20" s="1">
-        <v>12.4539</v>
+        <v>12.4564</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -3945,10 +3948,10 @@
         <v>208806.4609</v>
       </c>
       <c r="K21" s="1">
-        <v>171742.3507</v>
+        <v>171774.054</v>
       </c>
       <c r="L21" s="1">
-        <v>12.5951</v>
+        <v>12.5975</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -3998,10 +4001,10 @@
         <v>221028.0795</v>
       </c>
       <c r="K22" s="1">
-        <v>204956.0406</v>
+        <v>204987.7439</v>
       </c>
       <c r="L22" s="1">
-        <v>12.5447</v>
+        <v>12.5467</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -4051,10 +4054,10 @@
         <v>230782.0668</v>
       </c>
       <c r="K23" s="1">
-        <v>212632.415</v>
+        <v>212664.1184</v>
       </c>
       <c r="L23" s="1">
-        <v>12.5408</v>
+        <v>12.5426</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -4104,10 +4107,10 @@
         <v>257309.4834</v>
       </c>
       <c r="K24" s="1">
-        <v>222888.6986</v>
+        <v>222920.402</v>
       </c>
       <c r="L24" s="1">
-        <v>12.5353</v>
+        <v>12.537</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -4157,10 +4160,10 @@
         <v>275352.6754</v>
       </c>
       <c r="K25" s="1">
-        <v>223954.4831</v>
+        <v>223986.1864</v>
       </c>
       <c r="L25" s="1">
-        <v>12.5371</v>
+        <v>12.5388</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -4210,10 +4213,10 @@
         <v>294828.8527</v>
       </c>
       <c r="K26" s="1">
-        <v>225914.8675</v>
+        <v>225946.5709</v>
       </c>
       <c r="L26" s="1">
-        <v>12.5439</v>
+        <v>12.5457</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -4263,10 +4266,10 @@
         <v>326376.3686</v>
       </c>
       <c r="K27" s="1">
-        <v>226432.9223</v>
+        <v>226464.6257</v>
       </c>
       <c r="L27" s="1">
-        <v>12.5467</v>
+        <v>12.5485</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -4316,10 +4319,10 @@
         <v>349472.905</v>
       </c>
       <c r="K28" s="1">
-        <v>222973.9865</v>
+        <v>223019.4962</v>
       </c>
       <c r="L28" s="1">
-        <v>12.5188</v>
+        <v>12.5213</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -4369,10 +4372,10 @@
         <v>333244.0116</v>
       </c>
       <c r="K29" s="1">
-        <v>219865.0299</v>
+        <v>219922.9598</v>
       </c>
       <c r="L29" s="1">
-        <v>12.4858</v>
+        <v>12.4891</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -4422,10 +4425,10 @@
         <v>356152.278</v>
       </c>
       <c r="K30" s="1">
-        <v>256239.1697</v>
+        <v>256297.0996</v>
       </c>
       <c r="L30" s="1">
-        <v>12.6686</v>
+        <v>12.6715</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -4475,10 +4478,10 @@
         <v>367531.636</v>
       </c>
       <c r="K31" s="1">
-        <v>261129.3152</v>
+        <v>261187.2451</v>
       </c>
       <c r="L31" s="1">
-        <v>12.6936</v>
+        <v>12.6964</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -4528,10 +4531,10 @@
         <v>375896.0169</v>
       </c>
       <c r="K32" s="1">
-        <v>269764.9255</v>
+        <v>269822.8554</v>
       </c>
       <c r="L32" s="1">
-        <v>12.7374</v>
+        <v>12.7401</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -4581,10 +4584,10 @@
         <v>422024.8817</v>
       </c>
       <c r="K33" s="1">
-        <v>281412.5768</v>
+        <v>281470.5067</v>
       </c>
       <c r="L33" s="1">
-        <v>12.7901</v>
+        <v>12.7927</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -4634,10 +4637,10 @@
         <v>432706.694</v>
       </c>
       <c r="K34" s="1">
-        <v>264700.928</v>
+        <v>264825.6531</v>
       </c>
       <c r="L34" s="1">
-        <v>12.6563</v>
+        <v>12.6623</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -4687,10 +4690,10 @@
         <v>427224.9834</v>
       </c>
       <c r="K35" s="1">
-        <v>274056.4906</v>
+        <v>274181.2157</v>
       </c>
       <c r="L35" s="1">
-        <v>12.7337</v>
+        <v>12.7395</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -4740,10 +4743,10 @@
         <v>476024.6782</v>
       </c>
       <c r="K36" s="1">
-        <v>299602.8446</v>
+        <v>299727.5697</v>
       </c>
       <c r="L36" s="1">
-        <v>12.8789</v>
+        <v>12.8842</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -4793,10 +4796,10 @@
         <v>502067.3828</v>
       </c>
       <c r="K37" s="1">
-        <v>290032.8799</v>
+        <v>290195.8429</v>
       </c>
       <c r="L37" s="1">
-        <v>12.807</v>
+        <v>12.8142</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -4846,10 +4849,10 @@
         <v>517194.5219</v>
       </c>
       <c r="K38" s="1">
-        <v>283965.9497</v>
+        <v>284153.1383</v>
       </c>
       <c r="L38" s="1">
-        <v>12.7496</v>
+        <v>12.758</v>
       </c>
       <c r="M38" s="1">
         <v>0.75</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -5932,10 +5935,10 @@
         <v>217196.2479</v>
       </c>
       <c r="K20" s="1">
-        <v>161360.8786</v>
+        <v>161391.9788</v>
       </c>
       <c r="L20" s="1">
-        <v>12.4872</v>
+        <v>12.4896</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -5985,10 +5988,10 @@
         <v>208786.3512</v>
       </c>
       <c r="K21" s="1">
-        <v>180175.135</v>
+        <v>180206.2351</v>
       </c>
       <c r="L21" s="1">
-        <v>12.6288</v>
+        <v>12.631</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -6038,10 +6041,10 @@
         <v>221114.9534</v>
       </c>
       <c r="K22" s="1">
-        <v>215459.7549</v>
+        <v>215490.855</v>
       </c>
       <c r="L22" s="1">
-        <v>12.5722</v>
+        <v>12.574</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -6091,10 +6094,10 @@
         <v>230854.0786</v>
       </c>
       <c r="K23" s="1">
-        <v>224073.575</v>
+        <v>224104.6751</v>
       </c>
       <c r="L23" s="1">
-        <v>12.5668</v>
+        <v>12.5686</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -6144,10 +6147,10 @@
         <v>258256.1665</v>
       </c>
       <c r="K24" s="1">
-        <v>235449.6456</v>
+        <v>235480.7457</v>
       </c>
       <c r="L24" s="1">
-        <v>12.5598</v>
+        <v>12.5614</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -6197,10 +6200,10 @@
         <v>276755.1465</v>
       </c>
       <c r="K25" s="1">
-        <v>237192.569</v>
+        <v>237223.6691</v>
       </c>
       <c r="L25" s="1">
-        <v>12.5624</v>
+        <v>12.5641</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -6250,10 +6253,10 @@
         <v>296794.1466</v>
       </c>
       <c r="K26" s="1">
-        <v>239913.0167</v>
+        <v>239944.1168</v>
       </c>
       <c r="L26" s="1">
-        <v>12.5711</v>
+        <v>12.5727</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -6303,10 +6306,10 @@
         <v>329660.8808</v>
       </c>
       <c r="K27" s="1">
-        <v>241139.6399</v>
+        <v>241170.74</v>
       </c>
       <c r="L27" s="1">
-        <v>12.5773</v>
+        <v>12.5789</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -6356,10 +6359,10 @@
         <v>353609.6545</v>
       </c>
       <c r="K28" s="1">
-        <v>238172.1212</v>
+        <v>238215.0662</v>
       </c>
       <c r="L28" s="1">
-        <v>12.5551</v>
+        <v>12.5573</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -6409,10 +6412,10 @@
         <v>335602.6654</v>
       </c>
       <c r="K29" s="1">
-        <v>235597.6582</v>
+        <v>235650.8881</v>
       </c>
       <c r="L29" s="1">
-        <v>12.5298</v>
+        <v>12.5327</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -6462,10 +6465,10 @@
         <v>359396.9295</v>
       </c>
       <c r="K30" s="1">
-        <v>275204.32</v>
+        <v>275257.5499</v>
       </c>
       <c r="L30" s="1">
-        <v>12.71</v>
+        <v>12.7125</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -6515,10 +6518,10 @@
         <v>370874.2053</v>
       </c>
       <c r="K31" s="1">
-        <v>281236.032</v>
+        <v>281289.2619</v>
       </c>
       <c r="L31" s="1">
-        <v>12.7379</v>
+        <v>12.7403</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -6568,10 +6571,10 @@
         <v>379111.0702</v>
       </c>
       <c r="K32" s="1">
-        <v>291331.2165</v>
+        <v>291384.4464</v>
       </c>
       <c r="L32" s="1">
-        <v>12.7841</v>
+        <v>12.7864</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -6621,10 +6624,10 @@
         <v>428055.726</v>
       </c>
       <c r="K33" s="1">
-        <v>304721.5157</v>
+        <v>304774.7456</v>
       </c>
       <c r="L33" s="1">
-        <v>12.8384</v>
+        <v>12.8406</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -6674,10 +6677,10 @@
         <v>438793.1192</v>
       </c>
       <c r="K34" s="1">
-        <v>287581.8013</v>
+        <v>287703.5374</v>
       </c>
       <c r="L34" s="1">
-        <v>12.7139</v>
+        <v>12.7193</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -6727,10 +6730,10 @@
         <v>432002.8425</v>
       </c>
       <c r="K35" s="1">
-        <v>298618.9319</v>
+        <v>298740.6679</v>
       </c>
       <c r="L35" s="1">
-        <v>12.7963</v>
+        <v>12.8015</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -6780,10 +6783,10 @@
         <v>484123.6369</v>
       </c>
       <c r="K36" s="1">
-        <v>327268.6106</v>
+        <v>327390.3467</v>
       </c>
       <c r="L36" s="1">
-        <v>12.9413</v>
+        <v>12.9461</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -6833,10 +6836,10 @@
         <v>511608.0664</v>
       </c>
       <c r="K37" s="1">
-        <v>317846.5259</v>
+        <v>318005.9091</v>
       </c>
       <c r="L37" s="1">
-        <v>12.8779</v>
+        <v>12.8843</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -6886,10 +6889,10 @@
         <v>527210.3353</v>
       </c>
       <c r="K38" s="1">
-        <v>312247.0062</v>
+        <v>312428.7484</v>
       </c>
       <c r="L38" s="1">
-        <v>12.8304</v>
+        <v>12.8379</v>
       </c>
       <c r="M38" s="1">
         <v>0.75</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -7972,10 +7975,10 @@
         <v>217997.7967</v>
       </c>
       <c r="K20" s="1">
-        <v>168960.6991</v>
+        <v>168991.0534</v>
       </c>
       <c r="L20" s="1">
-        <v>12.5227</v>
+        <v>12.525</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -8025,10 +8028,10 @@
         <v>208707.829</v>
       </c>
       <c r="K21" s="1">
-        <v>189146.8033</v>
+        <v>189177.1576</v>
       </c>
       <c r="L21" s="1">
-        <v>12.6645</v>
+        <v>12.6665</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -8078,10 +8081,10 @@
         <v>221137.3294</v>
       </c>
       <c r="K22" s="1">
-        <v>225026.5411</v>
+        <v>225056.8954</v>
       </c>
       <c r="L22" s="1">
-        <v>12.6033</v>
+        <v>12.605</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -8131,10 +8134,10 @@
         <v>230860.3967</v>
       </c>
       <c r="K23" s="1">
-        <v>235026.5411</v>
+        <v>235056.8954</v>
       </c>
       <c r="L23" s="1">
-        <v>12.5961</v>
+        <v>12.5977</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -8184,10 +8187,10 @@
         <v>259001.2871</v>
       </c>
       <c r="K24" s="1">
-        <v>245026.5411</v>
+        <v>245056.8954</v>
       </c>
       <c r="L24" s="1">
-        <v>12.5889</v>
+        <v>12.5905</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -8237,10 +8240,10 @@
         <v>277972.8131</v>
       </c>
       <c r="K25" s="1">
-        <v>251611.022</v>
+        <v>251641.3763</v>
       </c>
       <c r="L25" s="1">
-        <v>12.5975</v>
+        <v>12.599</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -8290,10 +8293,10 @@
         <v>298617.4979</v>
       </c>
       <c r="K26" s="1">
-        <v>255199.1404</v>
+        <v>255229.4947</v>
       </c>
       <c r="L26" s="1">
-        <v>12.6079</v>
+        <v>12.6094</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -8343,10 +8346,10 @@
         <v>332907.2097</v>
       </c>
       <c r="K27" s="1">
-        <v>257245.6356</v>
+        <v>257275.9899</v>
       </c>
       <c r="L27" s="1">
-        <v>12.6173</v>
+        <v>12.6188</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -8396,10 +8399,10 @@
         <v>357779.6524</v>
       </c>
       <c r="K28" s="1">
-        <v>254871.1388</v>
+        <v>254910.9709</v>
       </c>
       <c r="L28" s="1">
-        <v>12.6009</v>
+        <v>12.6029</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -8449,10 +8452,10 @@
         <v>337838.9938</v>
       </c>
       <c r="K29" s="1">
-        <v>252943.5587</v>
+        <v>252991.0915</v>
       </c>
       <c r="L29" s="1">
-        <v>12.5835</v>
+        <v>12.5859</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -8502,10 +8505,10 @@
         <v>362597.8193</v>
       </c>
       <c r="K30" s="1">
-        <v>296138.7899</v>
+        <v>296186.3226</v>
       </c>
       <c r="L30" s="1">
-        <v>12.7597</v>
+        <v>12.7617</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -8555,10 +8558,10 @@
         <v>374182.0061</v>
       </c>
       <c r="K31" s="1">
-        <v>303495.2731</v>
+        <v>303542.8058</v>
       </c>
       <c r="L31" s="1">
-        <v>12.7902</v>
+        <v>12.7922</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -8608,10 +8611,10 @@
         <v>382278.4603</v>
       </c>
       <c r="K32" s="1">
-        <v>315273.8003</v>
+        <v>315321.333</v>
       </c>
       <c r="L32" s="1">
-        <v>12.8385</v>
+        <v>12.8404</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -8661,10 +8664,10 @@
         <v>434324.0865</v>
       </c>
       <c r="K33" s="1">
-        <v>330670.2883</v>
+        <v>330717.821</v>
       </c>
       <c r="L33" s="1">
-        <v>12.894</v>
+        <v>12.8958</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -8714,10 +8717,10 @@
         <v>445122.9588</v>
       </c>
       <c r="K34" s="1">
-        <v>313157.0607</v>
+        <v>313274.5925</v>
       </c>
       <c r="L34" s="1">
-        <v>12.7792</v>
+        <v>12.784</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -8767,10 +8770,10 @@
         <v>436879.9233</v>
       </c>
       <c r="K35" s="1">
-        <v>326159.5392</v>
+        <v>326277.071</v>
       </c>
       <c r="L35" s="1">
-        <v>12.8663</v>
+        <v>12.8709</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -8820,10 +8823,10 @@
         <v>492692.7619</v>
       </c>
       <c r="K36" s="1">
-        <v>358366.1472</v>
+        <v>358483.679</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0103</v>
+        <v>13.0146</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -8873,10 +8876,10 @@
         <v>521788.2904</v>
       </c>
       <c r="K37" s="1">
-        <v>349228.8677</v>
+        <v>349382.9086</v>
       </c>
       <c r="L37" s="1">
-        <v>12.9556</v>
+        <v>12.9613</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -8926,10 +8929,10 @@
         <v>537923.3223</v>
       </c>
       <c r="K38" s="1">
-        <v>344279.6041</v>
+        <v>344453.4077</v>
       </c>
       <c r="L38" s="1">
-        <v>12.9181</v>
+        <v>12.9247</v>
       </c>
       <c r="M38" s="1">
         <v>0.75</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-12</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -10012,10 +10015,10 @@
         <v>218581.76</v>
       </c>
       <c r="K20" s="1">
-        <v>177231.413</v>
+        <v>177260.8643</v>
       </c>
       <c r="L20" s="1">
-        <v>12.575</v>
+        <v>12.5771</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -10065,10 +10068,10 @@
         <v>208359.0417</v>
       </c>
       <c r="K21" s="1">
-        <v>198898.5089</v>
+        <v>198927.9601</v>
       </c>
       <c r="L21" s="1">
-        <v>12.7151</v>
+        <v>12.717</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -10118,10 +10121,10 @@
         <v>220820.8523</v>
       </c>
       <c r="K22" s="1">
-        <v>225768.8118</v>
+        <v>225798.263</v>
       </c>
       <c r="L22" s="1">
-        <v>12.663</v>
+        <v>12.6647</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -10171,10 +10174,10 @@
         <v>230544.2441</v>
       </c>
       <c r="K23" s="1">
-        <v>235768.8118</v>
+        <v>235798.263</v>
       </c>
       <c r="L23" s="1">
-        <v>12.6532</v>
+        <v>12.6548</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -10224,10 +10227,10 @@
         <v>258660.7909</v>
       </c>
       <c r="K24" s="1">
-        <v>245768.8118</v>
+        <v>245798.263</v>
       </c>
       <c r="L24" s="1">
-        <v>12.6436</v>
+        <v>12.6451</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -10277,10 +10280,10 @@
         <v>277984.8454</v>
       </c>
       <c r="K25" s="1">
-        <v>264153.7295</v>
+        <v>264183.1807</v>
       </c>
       <c r="L25" s="1">
-        <v>12.663</v>
+        <v>12.6644</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -10330,10 +10333,10 @@
         <v>299266.3534</v>
       </c>
       <c r="K26" s="1">
-        <v>272537.6163</v>
+        <v>272567.0676</v>
       </c>
       <c r="L26" s="1">
-        <v>12.6839</v>
+        <v>12.6852</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -10383,10 +10386,10 @@
         <v>335091.5737</v>
       </c>
       <c r="K27" s="1">
-        <v>275529.5729</v>
+        <v>275559.0241</v>
       </c>
       <c r="L27" s="1">
-        <v>12.696</v>
+        <v>12.6974</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -10436,10 +10439,10 @@
         <v>360965.5676</v>
       </c>
       <c r="K28" s="1">
-        <v>273864.3299</v>
+        <v>273900.4279</v>
       </c>
       <c r="L28" s="1">
-        <v>12.6857</v>
+        <v>12.6874</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -10489,10 +10492,10 @@
         <v>338920.9722</v>
       </c>
       <c r="K29" s="1">
-        <v>272712.8311</v>
+        <v>272753.5293</v>
       </c>
       <c r="L29" s="1">
-        <v>12.6763</v>
+        <v>12.6782</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -10542,10 +10545,10 @@
         <v>364730.4501</v>
       </c>
       <c r="K30" s="1">
-        <v>319893.8277</v>
+        <v>319934.5259</v>
       </c>
       <c r="L30" s="1">
-        <v>12.8429</v>
+        <v>12.8445</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -10595,10 +10598,10 @@
         <v>376431.4348</v>
       </c>
       <c r="K31" s="1">
-        <v>328784.8111</v>
+        <v>328825.5094</v>
       </c>
       <c r="L31" s="1">
-        <v>12.8751</v>
+        <v>12.8767</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -10648,10 +10651,10 @@
         <v>384373.1701</v>
       </c>
       <c r="K32" s="1">
-        <v>342502.9276</v>
+        <v>342543.6258</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9241</v>
+        <v>12.9257</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -10701,10 +10704,10 @@
         <v>439836.3195</v>
       </c>
       <c r="K33" s="1">
-        <v>360207.9215</v>
+        <v>360248.6198</v>
       </c>
       <c r="L33" s="1">
-        <v>12.9792</v>
+        <v>12.9807</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -10754,10 +10757,10 @@
         <v>450703.2499</v>
       </c>
       <c r="K34" s="1">
-        <v>342393.573</v>
+        <v>342505.4739</v>
       </c>
       <c r="L34" s="1">
-        <v>12.8753</v>
+        <v>12.8796</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -10807,10 +10810,10 @@
         <v>440845.9568</v>
       </c>
       <c r="K35" s="1">
-        <v>357690.998</v>
+        <v>357802.8989</v>
       </c>
       <c r="L35" s="1">
-        <v>12.9661</v>
+        <v>12.9701</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -10860,10 +10863,10 @@
         <v>500766.9527</v>
       </c>
       <c r="K36" s="1">
-        <v>393976.8769</v>
+        <v>394088.7778</v>
       </c>
       <c r="L36" s="1">
-        <v>13.1066</v>
+        <v>13.1103</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -10913,10 +10916,10 @@
         <v>531664.6784</v>
       </c>
       <c r="K37" s="1">
-        <v>385294.2322</v>
+        <v>385440.8256</v>
       </c>
       <c r="L37" s="1">
-        <v>13.0609</v>
+        <v>13.0658</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -10966,10 +10969,10 @@
         <v>548397.747</v>
       </c>
       <c r="K38" s="1">
-        <v>381219.0472</v>
+        <v>381381.9131</v>
       </c>
       <c r="L38" s="1">
-        <v>13.0337</v>
+        <v>13.0392</v>
       </c>
       <c r="M38" s="1">
         <v>0.75</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>13.6482</v>
       </c>
       <c r="D3" s="1">
-        <v>12.7496</v>
+        <v>12.758</v>
       </c>
       <c r="E3" s="1">
-        <v>12.8304</v>
+        <v>12.8379</v>
       </c>
       <c r="F3" s="1">
-        <v>12.9181</v>
+        <v>12.9247</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0337</v>
+        <v>13.0392</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>110029.8243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2012</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.8201</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.6875</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5617</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.4379</v>
       </c>
     </row>
   </sheetData>
